--- a/data/trans_dic/CoPsoQ_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Edad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.2227622894915108</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2662882243274897</v>
+        <v>0.2662882243274896</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2838013400037321</v>
@@ -664,7 +664,7 @@
         <v>0.2423839305012445</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3122033628931737</v>
+        <v>0.3122033628931736</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2080866280338942</v>
+        <v>0.2103467668916848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.18041914999462</v>
+        <v>0.1710300192789179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1048210026618723</v>
+        <v>0.1242073714411038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1793995460383319</v>
+        <v>0.1789565795908577</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1407903452040316</v>
+        <v>0.1510681850447436</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08845918145262362</v>
+        <v>0.09101953479700367</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2170285132951444</v>
+        <v>0.2167541576716527</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1829631080813869</v>
+        <v>0.1836892075817065</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1572869921513938</v>
+        <v>0.143100372038635</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4124580643787844</v>
+        <v>0.4369722391184955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.379730061070705</v>
+        <v>0.3748457658266421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6807737272476441</v>
+        <v>0.6911844368680508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3630699471846842</v>
+        <v>0.3594589349381047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3061205861900081</v>
+        <v>0.3153631364353254</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5142327346253527</v>
+        <v>0.5060008304487108</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.355641576619915</v>
+        <v>0.3594917034636577</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.306083562903477</v>
+        <v>0.3165035794352682</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5399362548328341</v>
+        <v>0.522301627082149</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.214030024554596</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3075816624878086</v>
+        <v>0.3075816624878085</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2343401656255222</v>
@@ -773,7 +773,7 @@
         <v>0.2054001392698087</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.2707311303472264</v>
+        <v>0.2707311303472263</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.20161561122177</v>
+        <v>0.2026545184145181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1552752068117919</v>
+        <v>0.1560518359278229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1531739064810938</v>
+        <v>0.1465514412006028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1666550370895331</v>
+        <v>0.1716624294939174</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1695536318435246</v>
+        <v>0.1677310546057106</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2103984047161144</v>
+        <v>0.2185304471108332</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.201807465405586</v>
+        <v>0.202013414353261</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1752066238286176</v>
+        <v>0.1754359854669383</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.200421195969591</v>
+        <v>0.2038637896165256</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2955351968697977</v>
+        <v>0.2951143022390698</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2449235052473068</v>
+        <v>0.2473138885851649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3700838276733587</v>
+        <v>0.3549892148028297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2705043698754899</v>
+        <v>0.2724758557905698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.26939662241711</v>
+        <v>0.267373993026071</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4249177896522069</v>
+        <v>0.4243686135472371</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2663413106162058</v>
+        <v>0.272273887738405</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2396815145097018</v>
+        <v>0.2422719198628237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3494098509958791</v>
+        <v>0.3524509290736098</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.2334543869438173</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2693941182777422</v>
+        <v>0.2693941182777423</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.221774352935069</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1827148530962301</v>
+        <v>0.184675121601079</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1884833832461996</v>
+        <v>0.1872044243935952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2293043254634108</v>
+        <v>0.2231302526924256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1708783866104347</v>
+        <v>0.1690314717896615</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1926877764143815</v>
+        <v>0.1899705822444399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1991579179130173</v>
+        <v>0.2004568245261642</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1912373627827878</v>
+        <v>0.1889736065489632</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1998299306787984</v>
+        <v>0.1991104241436265</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2368465074537925</v>
+        <v>0.2342710268016382</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2686362807734692</v>
+        <v>0.2716159746886045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2652634731827599</v>
+        <v>0.2633237649389261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4089848784106327</v>
+        <v>0.4071590600637428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2725247555473789</v>
+        <v>0.2764504282434349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2867495633141655</v>
+        <v>0.2832837230947349</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3455327027871377</v>
+        <v>0.3585468352928303</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2551798522890916</v>
+        <v>0.2590906337565896</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2625866698218315</v>
+        <v>0.2575102361600905</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3555283927951819</v>
+        <v>0.354820395189994</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1471622845630877</v>
+        <v>0.1478201199457321</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1930972989463899</v>
+        <v>0.1903056896273007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3490453160626351</v>
+        <v>0.3559456565629588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2163558590453195</v>
+        <v>0.2132981488944053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1700688775838181</v>
+        <v>0.1734405353390156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.280030748634776</v>
+        <v>0.2909180794923764</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1862257256717632</v>
+        <v>0.1866699010406103</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2007401125258636</v>
+        <v>0.1952643119323381</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3373398556224206</v>
+        <v>0.3399565976947962</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2328088747927335</v>
+        <v>0.2353889564721233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2874892471609278</v>
+        <v>0.2808064487834773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5260940066801448</v>
+        <v>0.524802487102764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3439084640011855</v>
+        <v>0.3399084289511944</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2788857133837819</v>
+        <v>0.2858388061598597</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4229779534423276</v>
+        <v>0.4276510068507069</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2579551203731522</v>
+        <v>0.2571721036293945</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2715477452769646</v>
+        <v>0.2658119369309567</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4565369371078673</v>
+        <v>0.453757779296496</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.2346885651433266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2596386501620909</v>
+        <v>0.259638650162091</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.224436849224162</v>
@@ -1091,7 +1091,7 @@
         <v>0.2785826736776179</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.222247257240349</v>
+        <v>0.2222472572403489</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2175698219158055</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1513082808150016</v>
+        <v>0.1500661538057979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1705014688950159</v>
+        <v>0.1732993448312674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1663721871293163</v>
+        <v>0.1604542915577209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1365168189794523</v>
+        <v>0.1335248137936336</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1924551886376975</v>
+        <v>0.1951996339144811</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1388181021796842</v>
+        <v>0.1290111417762546</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1636323265450919</v>
+        <v>0.1626855300131569</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1963808262925213</v>
+        <v>0.202026276516004</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1781811522899863</v>
+        <v>0.1736317985454011</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.284809395635507</v>
+        <v>0.2889720126251314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3205778020414506</v>
+        <v>0.3177010099836369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3760968262649309</v>
+        <v>0.3649857055213374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3327254536130224</v>
+        <v>0.3337547425680999</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3768068606335915</v>
+        <v>0.3869312541571897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3424454097539822</v>
+        <v>0.3331637080123757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2773970786295402</v>
+        <v>0.2758263201256057</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3096093260728468</v>
+        <v>0.311818291652028</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3252832310061994</v>
+        <v>0.3297516750599059</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.2302138012550605</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2291672480465452</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="22">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16348</v>
+        <v>16526</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14273</v>
+        <v>13530</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3156</v>
+        <v>3739</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15751</v>
+        <v>15713</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12932</v>
+        <v>13876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2339</v>
+        <v>2407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>36106</v>
+        <v>36060</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31280</v>
+        <v>31404</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8894</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="7">
@@ -1544,31 +1544,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32404</v>
+        <v>34330</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30040</v>
+        <v>29654</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20495</v>
+        <v>20808</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31878</v>
+        <v>31561</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28119</v>
+        <v>28968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13597</v>
+        <v>13379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>59166</v>
+        <v>59806</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>52329</v>
+        <v>54111</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30531</v>
+        <v>29534</v>
       </c>
     </row>
     <row r="8">
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>76425</v>
+        <v>76819</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53443</v>
+        <v>53711</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18157</v>
+        <v>17372</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45652</v>
+        <v>47024</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46410</v>
+        <v>45911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19309</v>
+        <v>20055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>131780</v>
+        <v>131914</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>108261</v>
+        <v>108402</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42151</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="11">
@@ -1688,31 +1688,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>112027</v>
+        <v>111868</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>84299</v>
+        <v>85122</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43870</v>
+        <v>42081</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>74100</v>
+        <v>74640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73738</v>
+        <v>73185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38996</v>
+        <v>38945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>173920</v>
+        <v>177794</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>148100</v>
+        <v>149700</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73485</v>
+        <v>74125</v>
       </c>
     </row>
     <row r="12">
@@ -1797,31 +1797,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>75585</v>
+        <v>76396</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86625</v>
+        <v>86037</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27056</v>
+        <v>26328</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>47281</v>
+        <v>46770</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>61162</v>
+        <v>60299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20708</v>
+        <v>20843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>132025</v>
+        <v>130462</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>155268</v>
+        <v>154709</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52574</v>
+        <v>52002</v>
       </c>
     </row>
     <row r="15">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111129</v>
+        <v>112361</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>121912</v>
+        <v>121020</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48257</v>
+        <v>48042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75406</v>
+        <v>76492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>91018</v>
+        <v>89918</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35928</v>
+        <v>37281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>176169</v>
+        <v>178869</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>204030</v>
+        <v>200086</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>78918</v>
+        <v>78761</v>
       </c>
     </row>
     <row r="16">
@@ -1941,31 +1941,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53457</v>
+        <v>53696</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71007</v>
+        <v>69981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47879</v>
+        <v>48826</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>47352</v>
+        <v>46682</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>41347</v>
+        <v>42167</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33815</v>
+        <v>35129</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>108405</v>
+        <v>108664</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122621</v>
+        <v>119276</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>87008</v>
+        <v>87683</v>
       </c>
     </row>
     <row r="19">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84569</v>
+        <v>85506</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>105718</v>
+        <v>103260</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72165</v>
+        <v>71988</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75268</v>
+        <v>74392</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>67802</v>
+        <v>69493</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51076</v>
+        <v>51640</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>150160</v>
+        <v>149704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>165874</v>
+        <v>162370</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>117752</v>
+        <v>117035</v>
       </c>
     </row>
     <row r="20">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23492</v>
+        <v>23299</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28257</v>
+        <v>28720</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11413</v>
+        <v>11007</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9373</v>
+        <v>9168</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>20377</v>
+        <v>20668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5698</v>
+        <v>5296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>36640</v>
+        <v>36428</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>53338</v>
+        <v>54871</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19537</v>
+        <v>19038</v>
       </c>
     </row>
     <row r="23">
@@ -2120,31 +2120,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44219</v>
+        <v>44866</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53128</v>
+        <v>52651</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25799</v>
+        <v>25037</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22844</v>
+        <v>22915</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>39896</v>
+        <v>40968</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14057</v>
+        <v>13676</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62114</v>
+        <v>61762</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>84091</v>
+        <v>84691</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>35666</v>
+        <v>36156</v>
       </c>
     </row>
     <row r="24">
@@ -2229,31 +2229,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
     </row>
     <row r="27">
@@ -2264,31 +2264,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
     </row>
     <row r="28">
